--- a/Parcial 1/Clases/08 Ejercicios buscar - soluciones.xlsx
+++ b/Parcial 1/Clases/08 Ejercicios buscar - soluciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 1\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8227C56-FF7D-4B68-B9B8-92038512E0E3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA43F0-E000-4BED-9680-A3445AF746D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
@@ -1849,6 +1849,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1890,21 +1905,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5706,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6056,31 +6056,31 @@
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <f ca="1">INDEX(J$19:J$35,RANDBETWEEN(1,COUNT(J19:J35)),1)</f>
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C19" s="7">
         <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D19" s="8">
         <f ca="1">VLOOKUP(B19,$J$19:$O$35,6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="8">
         <f ca="1">VLOOKUP(B19,$J$19:$O$35,4)</f>
-        <v>109.5</v>
+        <v>67.5</v>
       </c>
       <c r="F19" s="8">
         <f ca="1">VLOOKUP(B19,$J$19:$O$35,5)</f>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G19" s="9">
         <f ca="1">F19-E19</f>
-        <v>40.5</v>
+        <v>57.5</v>
       </c>
       <c r="H19" s="10">
         <f ca="1">G19*C19</f>
-        <v>243</v>
+        <v>747.5</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="11">
@@ -6106,31 +6106,31 @@
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <f t="shared" ref="B20:B23" ca="1" si="0">INDEX(J$19:J$35,RANDBETWEEN(1,COUNT(J20:J36)),1)</f>
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" ref="C20:C23" ca="1" si="1">RANDBETWEEN(1,15)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" ref="D20:D23" ca="1" si="2">VLOOKUP(B20,$J$19:$O$35,6)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" ref="E20:E23" ca="1" si="3">VLOOKUP(B20,$J$19:$O$35,4)</f>
-        <v>40.4</v>
+        <v>42.4</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F23" ca="1" si="4">VLOOKUP(B20,$J$19:$O$35,5)</f>
-        <v>69.400000000000006</v>
+        <v>80</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" ref="G20:G23" ca="1" si="5">F20-E20</f>
-        <v>29.000000000000007</v>
+        <v>37.6</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" ref="H20:H23" ca="1" si="6">G20*C20</f>
-        <v>319.00000000000006</v>
+        <v>376</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="14">
@@ -6156,19 +6156,19 @@
       <c r="A21" s="1"/>
       <c r="B21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>82.5</v>
+        <v>109.5</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="4"/>
@@ -6176,11 +6176,11 @@
       </c>
       <c r="G21" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>67.5</v>
+        <v>40.5</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>405</v>
+        <v>283.5</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="14">
@@ -6206,31 +6206,31 @@
       <c r="A22" s="1"/>
       <c r="B22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>125</v>
+        <v>40.4</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>250</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>125</v>
+        <v>29.000000000000007</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>1250</v>
+        <v>29.000000000000007</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="14">
@@ -6256,11 +6256,11 @@
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -6268,19 +6268,19 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>40.4</v>
+        <v>90.5</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.400000000000006</v>
+        <v>129.5</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>29.000000000000007</v>
+        <v>39</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>116.00000000000003</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="14">
@@ -6312,7 +6312,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="18">
         <f ca="1">SUM(H19:H23)</f>
-        <v>2333</v>
+        <v>1475</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="14">
@@ -6717,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A16:M178"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6789,19 +6789,19 @@
       </c>
       <c r="B27" s="97">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="97" t="str">
         <f ca="1">VLOOKUP(B27,$I$29:$K$32,2,FALSE)</f>
-        <v>16 Mbps</v>
+        <v>8 Mbps</v>
       </c>
       <c r="D27" s="97">
         <f ca="1">RANDBETWEEN(0,24)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E27" s="97">
         <f ca="1">RANDBETWEEN(D27,24)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F27" s="97">
         <f ca="1">(E27-D27)*60</f>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="G27" s="97">
         <f ca="1">(E27-D27)*VLOOKUP(B27,$I$29:$K$32,3,FALSE)</f>
-        <v>844</v>
+        <v>668</v>
       </c>
       <c r="I27" s="103" t="s">
         <v>126</v>
@@ -6823,27 +6823,27 @@
       </c>
       <c r="B28" s="97">
         <f t="shared" ref="B28:B56" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="97" t="str">
         <f t="shared" ref="C28:C56" ca="1" si="1">VLOOKUP(B28,$I$29:$K$32,2,FALSE)</f>
-        <v>8 Mbps</v>
+        <v>4 Mbps</v>
       </c>
       <c r="D28" s="97">
         <f t="shared" ref="D28:D56" ca="1" si="2">RANDBETWEEN(0,24)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E28" s="97">
         <f t="shared" ref="E28:E56" ca="1" si="3">RANDBETWEEN(D28,24)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F28" s="97">
         <f t="shared" ref="F28:F56" ca="1" si="4">(E28-D28)*60</f>
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="G28" s="97">
         <f t="shared" ref="G28:G56" ca="1" si="5">(E28-D28)*VLOOKUP(B28,$I$29:$K$32,3,FALSE)</f>
-        <v>835</v>
+        <v>99.98</v>
       </c>
       <c r="I28" s="104" t="s">
         <v>127</v>
@@ -6869,19 +6869,19 @@
       </c>
       <c r="D29" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E29" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F29" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G29" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>449.91</v>
       </c>
       <c r="I29" s="105">
         <v>1</v>
@@ -6899,27 +6899,27 @@
       </c>
       <c r="B30" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2 Mbps</v>
+        <v>16 Mbps</v>
       </c>
       <c r="D30" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E30" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F30" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="G30" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>111.2</v>
+        <v>211</v>
       </c>
       <c r="I30" s="105">
         <v>2</v>
@@ -6937,27 +6937,27 @@
       </c>
       <c r="B31" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>16 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D31" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E31" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>960</v>
+        <v>120</v>
       </c>
       <c r="G31" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>1688</v>
+        <v>55.6</v>
       </c>
       <c r="I31" s="105">
         <v>3</v>
@@ -6975,27 +6975,27 @@
       </c>
       <c r="B32" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2 Mbps</v>
+        <v>8 Mbps</v>
       </c>
       <c r="D32" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E32" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F32" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="G32" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>333.6</v>
+        <v>501</v>
       </c>
       <c r="I32" s="105">
         <v>4</v>
@@ -7013,27 +7013,27 @@
       </c>
       <c r="B33" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D33" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E33" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F33" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>360</v>
+        <v>1020</v>
       </c>
       <c r="G33" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>299.94</v>
+        <v>472.6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -7042,27 +7042,27 @@
       </c>
       <c r="B34" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2 Mbps</v>
+        <v>8 Mbps</v>
       </c>
       <c r="D34" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E34" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F34" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G34" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -7071,27 +7071,27 @@
       </c>
       <c r="B35" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D35" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E35" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F35" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G35" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>250.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -7100,27 +7100,27 @@
       </c>
       <c r="B36" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 Mbps</v>
+        <v>4 Mbps</v>
       </c>
       <c r="D36" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E36" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F36" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="G36" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>417.5</v>
+        <v>349.93</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -7129,27 +7129,27 @@
       </c>
       <c r="B37" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D37" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F37" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="G37" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>199.96</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -7158,27 +7158,27 @@
       </c>
       <c r="B38" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>16 Mbps</v>
+        <v>4 Mbps</v>
       </c>
       <c r="D38" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E38" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F38" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="G38" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>1266</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -7187,27 +7187,27 @@
       </c>
       <c r="B39" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2 Mbps</v>
+        <v>16 Mbps</v>
       </c>
       <c r="D39" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E39" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F39" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="G39" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>278</v>
+        <v>1160.5</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -7216,27 +7216,27 @@
       </c>
       <c r="B40" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D40" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E40" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F40" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="G40" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>99.98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -7253,19 +7253,19 @@
       </c>
       <c r="D41" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E41" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F41" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G41" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>27.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -7282,19 +7282,19 @@
       </c>
       <c r="D42" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E42" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F42" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>1020</v>
+        <v>660</v>
       </c>
       <c r="G42" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>1419.5</v>
+        <v>918.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -7303,27 +7303,27 @@
       </c>
       <c r="B43" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>16 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D43" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E43" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F43" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>540</v>
+        <v>1200</v>
       </c>
       <c r="G43" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>949.5</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -7332,27 +7332,27 @@
       </c>
       <c r="B44" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>16 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D44" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E44" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F44" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>960</v>
+        <v>60</v>
       </c>
       <c r="G44" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>1688</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -7361,27 +7361,27 @@
       </c>
       <c r="B45" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2 Mbps</v>
+        <v>8 Mbps</v>
       </c>
       <c r="D45" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E45" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F45" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="G45" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>111.2</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -7390,27 +7390,27 @@
       </c>
       <c r="B46" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2 Mbps</v>
+        <v>8 Mbps</v>
       </c>
       <c r="D46" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E46" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F46" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>840</v>
+        <v>60</v>
       </c>
       <c r="G46" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>389.2</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -7419,27 +7419,27 @@
       </c>
       <c r="B47" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4 Mbps</v>
+        <v>16 Mbps</v>
       </c>
       <c r="D47" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E47" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F47" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="G47" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>99.98</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -7448,27 +7448,27 @@
       </c>
       <c r="B48" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 Mbps</v>
+        <v>4 Mbps</v>
       </c>
       <c r="D48" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E48" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F48" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>660</v>
       </c>
       <c r="G48" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>83.5</v>
+        <v>549.89</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -7477,27 +7477,27 @@
       </c>
       <c r="B49" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2 Mbps</v>
+        <v>4 Mbps</v>
       </c>
       <c r="D49" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E49" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F49" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="G49" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>222.4</v>
+        <v>349.93</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -7514,19 +7514,19 @@
       </c>
       <c r="D50" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E50" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F50" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="G50" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>899.82</v>
+        <v>199.96</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -7535,27 +7535,27 @@
       </c>
       <c r="B51" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D51" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F51" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>1140</v>
+        <v>840</v>
       </c>
       <c r="G51" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>1586.5</v>
+        <v>389.2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -7572,11 +7572,11 @@
       </c>
       <c r="D52" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" s="97">
         <f t="shared" ca="1" si="4"/>
@@ -7593,27 +7593,27 @@
       </c>
       <c r="B53" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D53" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F53" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G53" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>83.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -7622,27 +7622,27 @@
       </c>
       <c r="B54" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2 Mbps</v>
+        <v>4 Mbps</v>
       </c>
       <c r="D54" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F54" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="G54" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>417</v>
+        <v>599.88</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -7651,11 +7651,11 @@
       </c>
       <c r="B55" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4 Mbps</v>
+        <v>2 Mbps</v>
       </c>
       <c r="D55" s="97">
         <f t="shared" ca="1" si="2"/>
@@ -7663,15 +7663,15 @@
       </c>
       <c r="E55" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F55" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G55" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>250.20000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -7680,27 +7680,27 @@
       </c>
       <c r="B56" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4 Mbps</v>
+        <v>16 Mbps</v>
       </c>
       <c r="D56" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F56" s="97">
         <f t="shared" ca="1" si="4"/>
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="G56" s="97">
         <f t="shared" ca="1" si="5"/>
-        <v>749.85</v>
+        <v>316.5</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
@@ -8079,8 +8079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8447,31 +8447,31 @@
       </c>
       <c r="H17" s="29">
         <f t="shared" ref="H17:H21" ca="1" si="0">ROUND(RAND()*(100000-0+1)+0,2)</f>
-        <v>11432.65</v>
+        <v>54057.02</v>
       </c>
       <c r="I17" s="30">
         <f ca="1">H17-J17</f>
-        <v>10099.755655999999</v>
+        <v>41519.015999999996</v>
       </c>
       <c r="J17" s="30">
         <f ca="1">L17+(M17*N17)-O17</f>
-        <v>1332.8943439999998</v>
+        <v>12538.003999999999</v>
       </c>
       <c r="K17" s="30">
         <f ca="1">VLOOKUP(H17,$B$17:$E$27,1,TRUE)</f>
-        <v>10298.36</v>
+        <v>32736.84</v>
       </c>
       <c r="L17" s="30">
         <f ca="1">VLOOKUP(K17,$B$17:$E$27,3,FALSE)</f>
-        <v>1090.6099999999999</v>
+        <v>6141.95</v>
       </c>
       <c r="M17" s="31">
         <f ca="1">VLOOKUP(K17,$B$17:$E$27,4,FALSE)</f>
-        <v>0.21360000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="N17" s="126">
         <f ca="1">H17-K17</f>
-        <v>1134.2899999999991</v>
+        <v>21320.179999999997</v>
       </c>
       <c r="O17" s="30">
         <f ca="1">VLOOKUP(P17,$B$32:$D$42,3,FALSE)</f>
@@ -8502,39 +8502,39 @@
       </c>
       <c r="H18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>31105.5</v>
+        <v>374.4</v>
       </c>
       <c r="I18" s="30">
         <f ca="1">H18-J18</f>
-        <v>25347.240959999999</v>
+        <v>774.23171200000002</v>
       </c>
       <c r="J18" s="30">
         <f t="shared" ref="J18:J21" ca="1" si="1">L18+(M18*N18)-O18</f>
-        <v>5758.2590400000008</v>
+        <v>-399.83171199999998</v>
       </c>
       <c r="K18" s="30">
         <f t="shared" ref="K18:K21" ca="1" si="2">VLOOKUP(H18,$B$17:$E$27,1,TRUE)</f>
-        <v>20770.3</v>
+        <v>0.01</v>
       </c>
       <c r="L18" s="30">
         <f t="shared" ref="L18:L21" ca="1" si="3">VLOOKUP(K18,$B$17:$E$27,3,FALSE)</f>
-        <v>3327.42</v>
+        <v>0</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" ref="M18:M21" ca="1" si="4">VLOOKUP(K18,$B$17:$E$27,4,FALSE)</f>
-        <v>0.23519999999999999</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="N18" s="126">
         <f t="shared" ref="N18:N21" ca="1" si="5">H18-K18</f>
-        <v>10335.200000000001</v>
+        <v>374.39</v>
       </c>
       <c r="O18" s="30">
         <f t="shared" ref="O18:O21" ca="1" si="6">VLOOKUP(P18,$B$32:$D$42,3,FALSE)</f>
-        <v>0</v>
+        <v>407.02</v>
       </c>
       <c r="P18" s="30">
         <f t="shared" ref="P18:P21" ca="1" si="7">VLOOKUP(H18,$B$32:$D$42,1,TRUE)</f>
-        <v>7382.34</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
@@ -8557,39 +8557,39 @@
       </c>
       <c r="H19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>55443.94</v>
+        <v>2851.62</v>
       </c>
       <c r="I19" s="30">
-        <f t="shared" ref="I18:I21" ca="1" si="8">H19-J19</f>
-        <v>42489.86</v>
+        <f t="shared" ref="I19:I21" ca="1" si="8">H19-J19</f>
+        <v>3097.9654399999999</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>12954.08</v>
+        <v>-246.34544</v>
       </c>
       <c r="K19" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>32736.84</v>
+        <v>496.08</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>6141.95</v>
+        <v>9.52</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="N19" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>22707.100000000002</v>
+        <v>2355.54</v>
       </c>
       <c r="O19" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>406.62</v>
       </c>
       <c r="P19" s="30">
         <f t="shared" ca="1" si="7"/>
-        <v>7382.34</v>
+        <v>2653.39</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
@@ -8612,31 +8612,31 @@
       </c>
       <c r="H20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19933.04</v>
+        <v>99003.43</v>
       </c>
       <c r="I20" s="30">
         <f t="shared" ca="1" si="8"/>
-        <v>16784.462352000002</v>
+        <v>71938.029399999999</v>
       </c>
       <c r="J20" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>3148.5776480000004</v>
+        <v>27065.400600000001</v>
       </c>
       <c r="K20" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>10298.36</v>
+        <v>83333.34</v>
       </c>
       <c r="L20" s="30">
         <f t="shared" ca="1" si="3"/>
-        <v>1090.6099999999999</v>
+        <v>21737.57</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21360000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="N20" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>9634.68</v>
+        <v>15670.089999999997</v>
       </c>
       <c r="O20" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -8667,15 +8667,15 @@
       </c>
       <c r="H21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>78328.399999999994</v>
+        <v>70342.19</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" ca="1" si="8"/>
-        <v>58192.415199999996</v>
+        <v>52761.792400000006</v>
       </c>
       <c r="J21" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>20135.984799999998</v>
+        <v>17580.3976</v>
       </c>
       <c r="K21" s="30">
         <f t="shared" ca="1" si="2"/>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="N21" s="126">
         <f t="shared" ca="1" si="5"/>
-        <v>15828.389999999992</v>
+        <v>7842.18</v>
       </c>
       <c r="O21" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -9388,7 +9388,7 @@
   <dimension ref="A1:AB130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9973,21 +9973,21 @@
         <v>12159.856425639233</v>
       </c>
       <c r="I16" s="120"/>
-      <c r="J16" s="148" t="s">
+      <c r="J16" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="150"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="135"/>
       <c r="W16" s="101"/>
       <c r="X16" s="101"/>
     </row>
@@ -14068,8 +14068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A13:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14080,11 +14080,11 @@
   </cols>
   <sheetData>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
     </row>
     <row r="14" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A14" s="84" t="s">
@@ -15679,7 +15679,7 @@
   <dimension ref="B1:AA371"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15866,15 +15866,15 @@
       <c r="B13" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="145" t="s">
+      <c r="D13" s="147"/>
+      <c r="E13" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="141"/>
-      <c r="G13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="151"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -16248,19 +16248,19 @@
       <c r="J23" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="143" t="s">
+      <c r="K23" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="144"/>
+      <c r="L23" s="149"/>
       <c r="O23" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="P23" s="133" t="s">
+      <c r="P23" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="135"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="140"/>
     </row>
     <row r="24" spans="2:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C24" s="76" t="s">
@@ -16281,8 +16281,8 @@
       <c r="L24" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="140"/>
-      <c r="O24" s="140"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
       <c r="P24" s="75" t="s">
         <v>65</v>
       </c>
@@ -16343,7 +16343,7 @@
         <f>SUMIFS($G$30:$G$371,$E$30:$E$371,"=1",$D$30:$D$371,"=extranjero")</f>
         <v>31814653.420000002</v>
       </c>
-      <c r="T25" s="138"/>
+      <c r="T25" s="143"/>
     </row>
     <row r="26" spans="2:27" ht="26.25" x14ac:dyDescent="0.45">
       <c r="C26" s="76" t="s">
@@ -16367,7 +16367,7 @@
         <f>SUMIFS($H$30:$H$371,$E$30:$E$371,"=2")/COUNTIFS(E31:E372,"=2")</f>
         <v>131500.55722803882</v>
       </c>
-      <c r="N26" s="136"/>
+      <c r="N26" s="141"/>
       <c r="O26" s="36">
         <v>2</v>
       </c>
@@ -16387,7 +16387,7 @@
         <f>SUMIFS($G$30:$G$371,$E$30:$E$371,"=2",$D$30:$D$371,"=extranjero")</f>
         <v>49518073.839999989</v>
       </c>
-      <c r="T26" s="139"/>
+      <c r="T26" s="144"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.45">
       <c r="G27" s="75" t="s">
@@ -16406,7 +16406,7 @@
         <f>SUMIFS($H$30:$H$371,$E$30:$E$371,"=3")/COUNTIFS(E32:E373,"=3")</f>
         <v>80020.008107414076</v>
       </c>
-      <c r="N27" s="137"/>
+      <c r="N27" s="142"/>
       <c r="O27" s="36">
         <v>3</v>
       </c>
@@ -16426,7 +16426,7 @@
         <f>SUMIFS($G$30:$G$371,$E$30:$E$371,"=3",$D$30:$D$371,"=extranjero")</f>
         <v>74181803.809999987</v>
       </c>
-      <c r="T27" s="139"/>
+      <c r="T27" s="144"/>
     </row>
     <row r="28" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I28" s="33"/>
@@ -16457,11 +16457,11 @@
         <v>72</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="151" t="s">
+      <c r="J29" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
@@ -16486,9 +16486,9 @@
         <v>4870.9021549999998</v>
       </c>
       <c r="I30" s="33"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B31" s="33"/>
@@ -16513,9 +16513,9 @@
         <v>655079.67940799997</v>
       </c>
       <c r="I31" s="33"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B32" s="33"/>
@@ -16540,9 +16540,9 @@
         <v>2464.1765500000001</v>
       </c>
       <c r="I32" s="33"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" s="33"/>
@@ -24143,14 +24143,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="J29:L32"/>
     <mergeCell ref="P23:S23"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="T25:T27"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24162,8 +24162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B9:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -24643,24 +24643,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Lista_x0020_de_x0020_Categor_x00ed_as xmlns="3d413473-fcf3-4de0-89d8-0961202c6d74" xsi:nil="true"/>
-    <Categor_x00ed_a xmlns="0802d32b-1505-49d7-8ca2-98aeeeeccb41">Parte2 Libros Excel</Categor_x00ed_a>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B0DACC4B2AA1A64FB31270A01C27BDD6" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3b03884ef437973fbf8ee09b585da356">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0802d32b-1505-49d7-8ca2-98aeeeeccb41" xmlns:ns3="3d413473-fcf3-4de0-89d8-0961202c6d74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="033a485c69c949ea8e21f8e4f325a290" ns2:_="" ns3:_="">
     <xsd:import namespace="0802d32b-1505-49d7-8ca2-98aeeeeccb41"/>
@@ -24799,10 +24781,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Lista_x0020_de_x0020_Categor_x00ed_as xmlns="3d413473-fcf3-4de0-89d8-0961202c6d74" xsi:nil="true"/>
+    <Categor_x00ed_a xmlns="0802d32b-1505-49d7-8ca2-98aeeeeccb41">Parte2 Libros Excel</Categor_x00ed_a>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DFC0181-75CF-478B-9510-C9F138FB25DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5769531-D46D-47D2-9683-4AF51B6FF662}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0802d32b-1505-49d7-8ca2-98aeeeeccb41"/>
+    <ds:schemaRef ds:uri="3d413473-fcf3-4de0-89d8-0961202c6d74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24825,20 +24836,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5769531-D46D-47D2-9683-4AF51B6FF662}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DFC0181-75CF-478B-9510-C9F138FB25DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0802d32b-1505-49d7-8ca2-98aeeeeccb41"/>
-    <ds:schemaRef ds:uri="3d413473-fcf3-4de0-89d8-0961202c6d74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>